--- a/src/_static/xlsx/tab_comuni_subentrati.xlsx
+++ b/src/_static/xlsx/tab_comuni_subentrati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="27495" windowHeight="11955"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="19440" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>CODISTAT</t>
   </si>
@@ -158,6 +158,36 @@
   </si>
   <si>
     <t>DATASUBENTRO</t>
+  </si>
+  <si>
+    <t>POGGIO A CAIANO</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>G754</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>075052</t>
+  </si>
+  <si>
+    <t>NARDO'</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>F842</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -222,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -233,6 +263,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -534,11 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -721,7 +752,7 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -755,6 +786,52 @@
       </c>
       <c r="G9" s="3">
         <v>42886.728275463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3">
+        <v>42919.777777777781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3">
+        <v>42926.736805555556</v>
       </c>
     </row>
   </sheetData>

--- a/src/_static/xlsx/tab_comuni_subentrati.xlsx
+++ b/src/_static/xlsx/tab_comuni_subentrati.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL Statement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>CODISTAT</t>
   </si>
@@ -137,26 +136,6 @@
     <t>BO</t>
   </si>
   <si>
-    <t>SELECT AC.ID,
-       AC.CODISTAT,
-       AC.CODCATASTALE,
-       AC.DENOMINAZIONE_IT,
-       AC.IDPROVINCIA,
-       AC.IDREGIONE,
-       AC.IDPREFETTURA,
-       PS.FINESUBEFF
-FROM
-  ANPR.AMM_COMUNE AC,
-  ANPR.PIANO_SUBENTRO PS
-WHERE
-  AC.CODISTAT = PS.IDCOMUNE AND
-  AC.STATO = 'A' AND
-  AC.TIPO_ENTE = 'C' AND
-  PS.FINESUBEFF IS NOT NULL
-ORDER BY
-  AC.DENOMINAZIONE_IT DESC</t>
-  </si>
-  <si>
     <t>DATASUBENTRO</t>
   </si>
   <si>
@@ -188,6 +167,42 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>098019</t>
+  </si>
+  <si>
+    <t>CODOGNO</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>C816</t>
+  </si>
+  <si>
+    <t>054053</t>
+  </si>
+  <si>
+    <t>TORGIANO</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>L216</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>010046</t>
+  </si>
+  <si>
+    <t>RAPALLO</t>
+  </si>
+  <si>
+    <t>H183</t>
   </si>
 </sst>
 </file>
@@ -565,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -601,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -790,22 +805,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6">
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3">
         <v>42919.777777777781</v>
@@ -813,25 +828,94 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D11" s="6">
         <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3">
         <v>42926.736805555556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6">
+        <v>98</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3">
+        <v>42951.736805555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3">
+        <v>42970.736805555556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
+        <v>42972.736805555556</v>
       </c>
     </row>
   </sheetData>
@@ -840,25 +924,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/_static/xlsx/tab_comuni_subentrati.xlsx
+++ b/src/_static/xlsx/tab_comuni_subentrati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>CODISTAT</t>
   </si>
@@ -203,6 +203,36 @@
   </si>
   <si>
     <t>H183</t>
+  </si>
+  <si>
+    <t>SPINEA</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>027038</t>
+  </si>
+  <si>
+    <t>I908</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>022079</t>
+  </si>
+  <si>
+    <t>D371</t>
+  </si>
+  <si>
+    <t>DRO</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
 </sst>
 </file>
@@ -580,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -918,6 +948,52 @@
         <v>42972.736805555556</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="3">
+        <v>42991.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="3">
+        <v>42996.666666666664</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I9">
     <sortCondition ref="G2:G9"/>

--- a/src/_static/xlsx/tab_comuni_subentrati.xlsx
+++ b/src/_static/xlsx/tab_comuni_subentrati.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="630" yWindow="525" windowWidth="19440" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Elenco" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>CODISTAT</t>
   </si>
@@ -233,6 +233,39 @@
   </si>
   <si>
     <t>TN</t>
+  </si>
+  <si>
+    <t>072004</t>
+  </si>
+  <si>
+    <t>A225</t>
+  </si>
+  <si>
+    <t>ALTAMURA</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>BIASSONO</t>
+  </si>
+  <si>
+    <t>A849</t>
+  </si>
+  <si>
+    <t>108009</t>
+  </si>
+  <si>
+    <t>037037</t>
+  </si>
+  <si>
+    <t>F083</t>
+  </si>
+  <si>
+    <t>MEDICINA</t>
   </si>
 </sst>
 </file>
@@ -610,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -994,6 +1027,75 @@
         <v>42996.666666666664</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="6">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43025.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="6">
+        <v>108</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="6">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43028</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I9">
     <sortCondition ref="G2:G9"/>

--- a/src/_static/xlsx/tab_comuni_subentrati.xlsx
+++ b/src/_static/xlsx/tab_comuni_subentrati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>CODISTAT</t>
   </si>
@@ -266,6 +266,54 @@
   </si>
   <si>
     <t>MEDICINA</t>
+  </si>
+  <si>
+    <t>015108</t>
+  </si>
+  <si>
+    <t>E094</t>
+  </si>
+  <si>
+    <t>GORGONZOLA</t>
+  </si>
+  <si>
+    <t>022181</t>
+  </si>
+  <si>
+    <t>I925</t>
+  </si>
+  <si>
+    <t>SPORMINORE</t>
+  </si>
+  <si>
+    <t>096073</t>
+  </si>
+  <si>
+    <t>L606</t>
+  </si>
+  <si>
+    <t>VALLE MOSSO</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>037054</t>
+  </si>
+  <si>
+    <t>H945</t>
+  </si>
+  <si>
+    <t>SAN LAZZARO DI SAVENA</t>
+  </si>
+  <si>
+    <t>037020</t>
+  </si>
+  <si>
+    <t>C265</t>
+  </si>
+  <si>
+    <t>CASTEL SAN PIETRO TERME</t>
   </si>
 </sst>
 </file>
@@ -643,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1096,6 +1144,121 @@
         <v>43028</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="6">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="6">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="6">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="6">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="6">
+        <v>37</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43053</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I9">
     <sortCondition ref="G2:G9"/>

--- a/src/_static/xlsx/tab_comuni_subentrati.xlsx
+++ b/src/_static/xlsx/tab_comuni_subentrati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="19440" windowHeight="11955"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="588">
   <si>
     <t>CODISTAT</t>
   </si>
@@ -314,6 +314,1470 @@
   </si>
   <si>
     <t>CASTEL SAN PIETRO TERME</t>
+  </si>
+  <si>
+    <t>025016</t>
+  </si>
+  <si>
+    <t>A266</t>
+  </si>
+  <si>
+    <t>CORTINA D'AMPEZZO</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>FAENZA</t>
+  </si>
+  <si>
+    <t>039010</t>
+  </si>
+  <si>
+    <t>D458</t>
+  </si>
+  <si>
+    <t>019025</t>
+  </si>
+  <si>
+    <t>C153</t>
+  </si>
+  <si>
+    <t>CASTELLEONE</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>015171</t>
+  </si>
+  <si>
+    <t>G488</t>
+  </si>
+  <si>
+    <t>PESCHIERA BORROMEO</t>
+  </si>
+  <si>
+    <t>006017</t>
+  </si>
+  <si>
+    <t>A889</t>
+  </si>
+  <si>
+    <t>BISTAGNO</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>108049</t>
+  </si>
+  <si>
+    <t>VILLASANTA</t>
+  </si>
+  <si>
+    <t>PECETTO TORINESE</t>
+  </si>
+  <si>
+    <t>001183</t>
+  </si>
+  <si>
+    <t>M017</t>
+  </si>
+  <si>
+    <t>G398</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MODENA</t>
+  </si>
+  <si>
+    <t>ROVERETO</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>F257</t>
+  </si>
+  <si>
+    <t>036023</t>
+  </si>
+  <si>
+    <t>022161</t>
+  </si>
+  <si>
+    <t>H612</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>LAURINO</t>
+  </si>
+  <si>
+    <t>065061</t>
+  </si>
+  <si>
+    <t>E485</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>016044</t>
+  </si>
+  <si>
+    <t>B395</t>
+  </si>
+  <si>
+    <t>CALCIO</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>051012</t>
+  </si>
+  <si>
+    <t>C319</t>
+  </si>
+  <si>
+    <t>CASTIGLION FIORENTINO</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>037025</t>
+  </si>
+  <si>
+    <t>D360</t>
+  </si>
+  <si>
+    <t>DOZZA</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>ACERRA</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>063001</t>
+  </si>
+  <si>
+    <t>037022</t>
+  </si>
+  <si>
+    <t>015172</t>
+  </si>
+  <si>
+    <t>C296</t>
+  </si>
+  <si>
+    <t>G502</t>
+  </si>
+  <si>
+    <t>CASTIGLIONE DEI PEPOLI</t>
+  </si>
+  <si>
+    <t>PESSANO CON BORNAGO</t>
+  </si>
+  <si>
+    <t>046017</t>
+  </si>
+  <si>
+    <t>E715</t>
+  </si>
+  <si>
+    <t>LUCCA</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>111007</t>
+  </si>
+  <si>
+    <t>B274</t>
+  </si>
+  <si>
+    <t>BURCEI</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>014037</t>
+  </si>
+  <si>
+    <t>E621</t>
+  </si>
+  <si>
+    <t>LIVIGNO</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>CODIGORO</t>
+  </si>
+  <si>
+    <t>C814</t>
+  </si>
+  <si>
+    <t>038005</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>013143</t>
+  </si>
+  <si>
+    <t>E951</t>
+  </si>
+  <si>
+    <t>MARIANO COMENSE</t>
+  </si>
+  <si>
+    <t>E772</t>
+  </si>
+  <si>
+    <t>LUZZARA</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>039014</t>
+  </si>
+  <si>
+    <t>H199</t>
+  </si>
+  <si>
+    <t>RAVENNA</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>080028</t>
+  </si>
+  <si>
+    <t>C747</t>
+  </si>
+  <si>
+    <t>CITTANOVA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>004034</t>
+  </si>
+  <si>
+    <t>B285</t>
+  </si>
+  <si>
+    <t>BUSCA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>MONFORTE D'ALBA</t>
+  </si>
+  <si>
+    <t>F358</t>
+  </si>
+  <si>
+    <t>004132</t>
+  </si>
+  <si>
+    <t>004086</t>
+  </si>
+  <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>FARIGLIANO</t>
+  </si>
+  <si>
+    <t>003062</t>
+  </si>
+  <si>
+    <t>D347</t>
+  </si>
+  <si>
+    <t>DORMELLETTO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>SAN GIOVANNI ROTONDO</t>
+  </si>
+  <si>
+    <t>H926</t>
+  </si>
+  <si>
+    <t>071046</t>
+  </si>
+  <si>
+    <t>060038</t>
+  </si>
+  <si>
+    <t>D810</t>
+  </si>
+  <si>
+    <t>FROSINONE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GATTINARA</t>
+  </si>
+  <si>
+    <t>D938</t>
+  </si>
+  <si>
+    <t>002061</t>
+  </si>
+  <si>
+    <t>CONSELICE</t>
+  </si>
+  <si>
+    <t>C963</t>
+  </si>
+  <si>
+    <t>039008</t>
+  </si>
+  <si>
+    <t>003008</t>
+  </si>
+  <si>
+    <t>A429</t>
+  </si>
+  <si>
+    <t>ARONA</t>
+  </si>
+  <si>
+    <t>PRAMOLLO</t>
+  </si>
+  <si>
+    <t>G982</t>
+  </si>
+  <si>
+    <t>001204</t>
+  </si>
+  <si>
+    <t>CARRU'</t>
+  </si>
+  <si>
+    <t>004043</t>
+  </si>
+  <si>
+    <t>B841</t>
+  </si>
+  <si>
+    <t>COTIGNOLA</t>
+  </si>
+  <si>
+    <t>D121</t>
+  </si>
+  <si>
+    <t>039009</t>
+  </si>
+  <si>
+    <t>RODDI</t>
+  </si>
+  <si>
+    <t>H472</t>
+  </si>
+  <si>
+    <t>004194</t>
+  </si>
+  <si>
+    <t>SAN GIOVANNI SUERGIU</t>
+  </si>
+  <si>
+    <t>G287</t>
+  </si>
+  <si>
+    <t>111063</t>
+  </si>
+  <si>
+    <t>BAROLO</t>
+  </si>
+  <si>
+    <t>A671</t>
+  </si>
+  <si>
+    <t>004013</t>
+  </si>
+  <si>
+    <t>MOMBARCARO</t>
+  </si>
+  <si>
+    <t>F309</t>
+  </si>
+  <si>
+    <t>004124</t>
+  </si>
+  <si>
+    <t>SIZZANO</t>
+  </si>
+  <si>
+    <t>003139</t>
+  </si>
+  <si>
+    <t>I767</t>
+  </si>
+  <si>
+    <t>CASELLE LANDI</t>
+  </si>
+  <si>
+    <t>B961</t>
+  </si>
+  <si>
+    <t>098011</t>
+  </si>
+  <si>
+    <t>081008</t>
+  </si>
+  <si>
+    <t>D423</t>
+  </si>
+  <si>
+    <t>ERICE</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>055032</t>
+  </si>
+  <si>
+    <t>L117</t>
+  </si>
+  <si>
+    <t>TERNI</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>SORAGA DI FASSA</t>
+  </si>
+  <si>
+    <t>I839</t>
+  </si>
+  <si>
+    <t>022176</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>BRONI</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>018024</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>ORSAGO</t>
+  </si>
+  <si>
+    <t>G123</t>
+  </si>
+  <si>
+    <t>026053</t>
+  </si>
+  <si>
+    <t>010059</t>
+  </si>
+  <si>
+    <t>I693</t>
+  </si>
+  <si>
+    <t>SESTRI LEVANTE</t>
+  </si>
+  <si>
+    <t>A787</t>
+  </si>
+  <si>
+    <t>014007</t>
+  </si>
+  <si>
+    <t>BERBENNO DI VALTELLINA</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>PREMIA</t>
+  </si>
+  <si>
+    <t>H033</t>
+  </si>
+  <si>
+    <t>103056</t>
+  </si>
+  <si>
+    <t>CEDRASCO</t>
+  </si>
+  <si>
+    <t>C418</t>
+  </si>
+  <si>
+    <t>014016</t>
+  </si>
+  <si>
+    <t>039011</t>
+  </si>
+  <si>
+    <t>D829</t>
+  </si>
+  <si>
+    <t>FUSIGNANO</t>
+  </si>
+  <si>
+    <t>PERUGIA</t>
+  </si>
+  <si>
+    <t>G478</t>
+  </si>
+  <si>
+    <t>054039</t>
+  </si>
+  <si>
+    <t>BOSSOLASCO</t>
+  </si>
+  <si>
+    <t>B084</t>
+  </si>
+  <si>
+    <t>004027</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>MONTEVIALE</t>
+  </si>
+  <si>
+    <t>F662</t>
+  </si>
+  <si>
+    <t>024066</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>095028</t>
+  </si>
+  <si>
+    <t>F270</t>
+  </si>
+  <si>
+    <t>MOGORELLA</t>
+  </si>
+  <si>
+    <t>C185</t>
+  </si>
+  <si>
+    <t>037017</t>
+  </si>
+  <si>
+    <t>CASTELLO D'ARGILE</t>
+  </si>
+  <si>
+    <t>SAN POLO DI PIAVE</t>
+  </si>
+  <si>
+    <t>I124</t>
+  </si>
+  <si>
+    <t>026074</t>
+  </si>
+  <si>
+    <t>OLEGGIO</t>
+  </si>
+  <si>
+    <t>G019</t>
+  </si>
+  <si>
+    <t>003108</t>
+  </si>
+  <si>
+    <t>ANNONE VENETO</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>027001</t>
+  </si>
+  <si>
+    <t>LANZADA</t>
+  </si>
+  <si>
+    <t>E443</t>
+  </si>
+  <si>
+    <t>014036</t>
+  </si>
+  <si>
+    <t>027030</t>
+  </si>
+  <si>
+    <t>G981</t>
+  </si>
+  <si>
+    <t>PRAMAGGIORE</t>
+  </si>
+  <si>
+    <t>CASPOGGIO</t>
+  </si>
+  <si>
+    <t>B993</t>
+  </si>
+  <si>
+    <t>014013</t>
+  </si>
+  <si>
+    <t>CREMA</t>
+  </si>
+  <si>
+    <t>D142</t>
+  </si>
+  <si>
+    <t>019035</t>
+  </si>
+  <si>
+    <t>004152</t>
+  </si>
+  <si>
+    <t>F961</t>
+  </si>
+  <si>
+    <t>NOVELLO</t>
+  </si>
+  <si>
+    <t>019100</t>
+  </si>
+  <si>
+    <t>I906</t>
+  </si>
+  <si>
+    <t>SPINADESCO</t>
+  </si>
+  <si>
+    <t>C325</t>
+  </si>
+  <si>
+    <t>014015</t>
+  </si>
+  <si>
+    <t>CASTIONE ANDEVENNO</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>TONARA</t>
+  </si>
+  <si>
+    <t>L202</t>
+  </si>
+  <si>
+    <t>091093</t>
+  </si>
+  <si>
+    <t>OLGIATE COMASCO</t>
+  </si>
+  <si>
+    <t>G025</t>
+  </si>
+  <si>
+    <t>013165</t>
+  </si>
+  <si>
+    <t>BREMBATE DI SOPRA</t>
+  </si>
+  <si>
+    <t>B138</t>
+  </si>
+  <si>
+    <t>016038</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>CASCIAGO</t>
+  </si>
+  <si>
+    <t>B949</t>
+  </si>
+  <si>
+    <t>012038</t>
+  </si>
+  <si>
+    <t>SINIO</t>
+  </si>
+  <si>
+    <t>I750</t>
+  </si>
+  <si>
+    <t>004220</t>
+  </si>
+  <si>
+    <t>SERRAVALLE LANGHE</t>
+  </si>
+  <si>
+    <t>I659</t>
+  </si>
+  <si>
+    <t>004219</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>SANTA MARIA A MONTE</t>
+  </si>
+  <si>
+    <t>I232</t>
+  </si>
+  <si>
+    <t>050035</t>
+  </si>
+  <si>
+    <t>ARBUS</t>
+  </si>
+  <si>
+    <t>111001</t>
+  </si>
+  <si>
+    <t>A359</t>
+  </si>
+  <si>
+    <t>SAN ROCCO AL PORTO</t>
+  </si>
+  <si>
+    <t>I140</t>
+  </si>
+  <si>
+    <t>098049</t>
+  </si>
+  <si>
+    <t>SIAPICCIA</t>
+  </si>
+  <si>
+    <t>I721</t>
+  </si>
+  <si>
+    <t>095076</t>
+  </si>
+  <si>
+    <t>ARGUELLO</t>
+  </si>
+  <si>
+    <t>A396</t>
+  </si>
+  <si>
+    <t>004007</t>
+  </si>
+  <si>
+    <t>MARCARIA</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>E922</t>
+  </si>
+  <si>
+    <t>020031</t>
+  </si>
+  <si>
+    <t>027014</t>
+  </si>
+  <si>
+    <t>D578</t>
+  </si>
+  <si>
+    <t>FIESSO D'ARTICO</t>
+  </si>
+  <si>
+    <t>E430</t>
+  </si>
+  <si>
+    <t>LA MORRA</t>
+  </si>
+  <si>
+    <t>004105</t>
+  </si>
+  <si>
+    <t>026042</t>
+  </si>
+  <si>
+    <t>F190</t>
+  </si>
+  <si>
+    <t>MIANE</t>
+  </si>
+  <si>
+    <t>BANNIO ANZINO</t>
+  </si>
+  <si>
+    <t>A610</t>
+  </si>
+  <si>
+    <t>103007</t>
+  </si>
+  <si>
+    <t>LISSONE</t>
+  </si>
+  <si>
+    <t>E617</t>
+  </si>
+  <si>
+    <t>108028</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>048053</t>
+  </si>
+  <si>
+    <t>M326</t>
+  </si>
+  <si>
+    <t>SCARPERIA E SAN PIERO</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>CORTEMILIA</t>
+  </si>
+  <si>
+    <t>D062</t>
+  </si>
+  <si>
+    <t>004073</t>
+  </si>
+  <si>
+    <t>039003</t>
+  </si>
+  <si>
+    <t>A551</t>
+  </si>
+  <si>
+    <t>BAGNARA DI ROMAGNA</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>VIVERONE</t>
+  </si>
+  <si>
+    <t>M098</t>
+  </si>
+  <si>
+    <t>096080</t>
+  </si>
+  <si>
+    <t>MOLINELLA</t>
+  </si>
+  <si>
+    <t>F288</t>
+  </si>
+  <si>
+    <t>037039</t>
+  </si>
+  <si>
+    <t>ALBIATE</t>
+  </si>
+  <si>
+    <t>108003</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>GALLIERA</t>
+  </si>
+  <si>
+    <t>D878</t>
+  </si>
+  <si>
+    <t>037028</t>
+  </si>
+  <si>
+    <t>CAMPITELLO DI FASSA</t>
+  </si>
+  <si>
+    <t>022036</t>
+  </si>
+  <si>
+    <t>B514</t>
+  </si>
+  <si>
+    <t>GHEMME</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>003073</t>
+  </si>
+  <si>
+    <t>VERANO BRIANZA</t>
+  </si>
+  <si>
+    <t>L744</t>
+  </si>
+  <si>
+    <t>108048</t>
+  </si>
+  <si>
+    <t>PEZZOLO VALLE UZZONE</t>
+  </si>
+  <si>
+    <t>G532</t>
+  </si>
+  <si>
+    <t>004164</t>
+  </si>
+  <si>
+    <t>004129</t>
+  </si>
+  <si>
+    <t>F338</t>
+  </si>
+  <si>
+    <t>MONCHIERO</t>
+  </si>
+  <si>
+    <t>INZAGO</t>
+  </si>
+  <si>
+    <t>E317</t>
+  </si>
+  <si>
+    <t>015114</t>
+  </si>
+  <si>
+    <t>CASTIGLIONE FALLETTO</t>
+  </si>
+  <si>
+    <t>C314</t>
+  </si>
+  <si>
+    <t>004055</t>
+  </si>
+  <si>
+    <t>019043</t>
+  </si>
+  <si>
+    <t>D574</t>
+  </si>
+  <si>
+    <t>FIESCO</t>
+  </si>
+  <si>
+    <t>015192</t>
+  </si>
+  <si>
+    <t>H827</t>
+  </si>
+  <si>
+    <t>SAN DONATO MILANESE</t>
+  </si>
+  <si>
+    <t>INVORIO</t>
+  </si>
+  <si>
+    <t>E314</t>
+  </si>
+  <si>
+    <t>003082</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>SANTA GIUSTINA IN COLLE</t>
+  </si>
+  <si>
+    <t>028080</t>
+  </si>
+  <si>
+    <t>I207</t>
+  </si>
+  <si>
+    <t>CHIESA IN VALMALENCO</t>
+  </si>
+  <si>
+    <t>014019</t>
+  </si>
+  <si>
+    <t>C628</t>
+  </si>
+  <si>
+    <t>MAZZIN</t>
+  </si>
+  <si>
+    <t>F068</t>
+  </si>
+  <si>
+    <t>022113</t>
+  </si>
+  <si>
+    <t>ROCCHETTA BELBO</t>
+  </si>
+  <si>
+    <t>004193</t>
+  </si>
+  <si>
+    <t>H462</t>
+  </si>
+  <si>
+    <t>OMEGNA</t>
+  </si>
+  <si>
+    <t>103050</t>
+  </si>
+  <si>
+    <t>G062</t>
+  </si>
+  <si>
+    <t>GRINZANE CAVOUR</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>E182</t>
+  </si>
+  <si>
+    <t>004238</t>
+  </si>
+  <si>
+    <t>L758</t>
+  </si>
+  <si>
+    <t>VERDUNO</t>
+  </si>
+  <si>
+    <t>003130</t>
+  </si>
+  <si>
+    <t>H502</t>
+  </si>
+  <si>
+    <t>ROMAGNANO SESIA</t>
+  </si>
+  <si>
+    <t>004070</t>
+  </si>
+  <si>
+    <t>C738</t>
+  </si>
+  <si>
+    <t>CISSONE</t>
+  </si>
+  <si>
+    <t>096007</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>BRUSNENGO</t>
+  </si>
+  <si>
+    <t>035023</t>
+  </si>
+  <si>
+    <t>E232</t>
+  </si>
+  <si>
+    <t>GUALTIERI</t>
+  </si>
+  <si>
+    <t>FORMAZZA</t>
+  </si>
+  <si>
+    <t>103031</t>
+  </si>
+  <si>
+    <t>D706</t>
+  </si>
+  <si>
+    <t>004074</t>
+  </si>
+  <si>
+    <t>D093</t>
+  </si>
+  <si>
+    <t>COSSANO BELBO</t>
+  </si>
+  <si>
+    <t>CROVA</t>
+  </si>
+  <si>
+    <t>D187</t>
+  </si>
+  <si>
+    <t>002052</t>
+  </si>
+  <si>
+    <t>GUASTALLA</t>
+  </si>
+  <si>
+    <t>E253</t>
+  </si>
+  <si>
+    <t>035024</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ZIANO PIACENTINO</t>
+  </si>
+  <si>
+    <t>033048</t>
+  </si>
+  <si>
+    <t>L848</t>
+  </si>
+  <si>
+    <t>A325</t>
+  </si>
+  <si>
+    <t>ANZOLA D'OSSOLA</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>MALEO</t>
+  </si>
+  <si>
+    <t>098035</t>
+  </si>
+  <si>
+    <t>E852</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>RECANATI</t>
+  </si>
+  <si>
+    <t>043044</t>
+  </si>
+  <si>
+    <t>H211</t>
+  </si>
+  <si>
+    <t>GONNOSNO'</t>
+  </si>
+  <si>
+    <t>D585</t>
+  </si>
+  <si>
+    <t>095023</t>
+  </si>
+  <si>
+    <t>004050</t>
+  </si>
+  <si>
+    <t>C167</t>
+  </si>
+  <si>
+    <t>CASTELLETTO UZZONE</t>
+  </si>
+  <si>
+    <t>MONTECCHIO PRECALCINO</t>
+  </si>
+  <si>
+    <t>024062</t>
+  </si>
+  <si>
+    <t>F465</t>
+  </si>
+  <si>
+    <t>MOGLIA</t>
+  </si>
+  <si>
+    <t>020035</t>
+  </si>
+  <si>
+    <t>F267</t>
+  </si>
+  <si>
+    <t>LUGO</t>
+  </si>
+  <si>
+    <t>039012</t>
+  </si>
+  <si>
+    <t>E730</t>
+  </si>
+  <si>
+    <t>103040</t>
+  </si>
+  <si>
+    <t>E795</t>
+  </si>
+  <si>
+    <t>MADONNA DEL SASSO</t>
+  </si>
+  <si>
+    <t>050036</t>
+  </si>
+  <si>
+    <t>L138</t>
+  </si>
+  <si>
+    <t>TERRICCIOLA</t>
+  </si>
+  <si>
+    <t>CARMIGNANO</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>B794</t>
+  </si>
+  <si>
+    <t>034023</t>
+  </si>
+  <si>
+    <t>F473</t>
+  </si>
+  <si>
+    <t>MONTECHIARUGOLO</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>004026</t>
+  </si>
+  <si>
+    <t>B079</t>
+  </si>
+  <si>
+    <t>BOSIA</t>
+  </si>
+  <si>
+    <t>019013</t>
+  </si>
+  <si>
+    <t>B679</t>
+  </si>
+  <si>
+    <t>CAPPELLA CANTONE</t>
+  </si>
+  <si>
+    <t>MALNATE</t>
+  </si>
+  <si>
+    <t>012096</t>
+  </si>
+  <si>
+    <t>E863</t>
+  </si>
+  <si>
+    <t>CAMPAGNOLA EMILIA</t>
+  </si>
+  <si>
+    <t>035009</t>
+  </si>
+  <si>
+    <t>B499</t>
+  </si>
+  <si>
+    <t>PALAGANO</t>
+  </si>
+  <si>
+    <t>036029</t>
+  </si>
+  <si>
+    <t>G250</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>NASO</t>
+  </si>
+  <si>
+    <t>083060</t>
+  </si>
+  <si>
+    <t>F848</t>
+  </si>
+  <si>
+    <t>LEVATE</t>
+  </si>
+  <si>
+    <t>016126</t>
+  </si>
+  <si>
+    <t>E562</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>035026</t>
+  </si>
+  <si>
+    <t>FELETTO</t>
+  </si>
+  <si>
+    <t>001102</t>
+  </si>
+  <si>
+    <t>D524</t>
+  </si>
+  <si>
+    <t>TERRE DEL RENO</t>
+  </si>
+  <si>
+    <t>038028</t>
+  </si>
+  <si>
+    <t>M381</t>
+  </si>
+  <si>
+    <t>BRUINO</t>
+  </si>
+  <si>
+    <t>001038</t>
+  </si>
+  <si>
+    <t>B216</t>
+  </si>
+  <si>
+    <t>STRONA</t>
+  </si>
+  <si>
+    <t>096065</t>
+  </si>
+  <si>
+    <t>I980</t>
+  </si>
+  <si>
+    <t>BERGAMO</t>
+  </si>
+  <si>
+    <t>016024</t>
+  </si>
+  <si>
+    <t>A794</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>VILLACHIARA</t>
+  </si>
+  <si>
+    <t>017200</t>
+  </si>
+  <si>
+    <t>L923</t>
+  </si>
+  <si>
+    <t>ANNICCO</t>
+  </si>
+  <si>
+    <t>019003</t>
+  </si>
+  <si>
+    <t>A299</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>OLBIA</t>
+  </si>
+  <si>
+    <t>090047</t>
+  </si>
+  <si>
+    <t>G015</t>
+  </si>
+  <si>
+    <t>026041</t>
+  </si>
+  <si>
+    <t>F088</t>
+  </si>
+  <si>
+    <t>MEDUNA DI LIVENZA</t>
+  </si>
+  <si>
+    <t>BURONZO</t>
+  </si>
+  <si>
+    <t>002021</t>
+  </si>
+  <si>
+    <t>B280</t>
+  </si>
+  <si>
+    <t>MONTELUPONE</t>
+  </si>
+  <si>
+    <t>043030</t>
+  </si>
+  <si>
+    <t>F552</t>
   </si>
 </sst>
 </file>
@@ -337,7 +1801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +1811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -390,6 +1860,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -691,16 +2183,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -878,8 +2372,8 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
-        <v>2</v>
+      <c r="D8" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -1257,6 +2751,3387 @@
       </c>
       <c r="G24" s="3">
         <v>43053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="6">
+        <v>39</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="6">
+        <v>19</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="6">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="8">
+        <v>108</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="8">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="2">
+        <v>22</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2">
+        <v>65</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="11">
+        <v>16</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="2">
+        <v>51</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="9">
+        <v>37</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="9">
+        <v>63</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="3">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="9">
+        <v>37</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="3">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="9">
+        <v>15</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="3">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="9">
+        <v>46</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="3">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="9">
+        <v>112</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="3">
+        <v>43097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="9">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="3">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="9">
+        <v>38</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="3">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="9">
+        <v>13</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="3">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="9">
+        <v>35</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="3">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="9">
+        <v>39</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="3">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="9">
+        <v>80</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="3">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="3">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="3">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="3">
+        <v>43130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="3">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="12">
+        <v>71</v>
+      </c>
+      <c r="E53" s="13">
+        <v>16</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="3">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="12">
+        <v>60</v>
+      </c>
+      <c r="E54" s="13">
+        <v>12</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="3">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="3">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="12">
+        <v>39</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="3">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="3">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="3">
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="3">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="12">
+        <v>39</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="3">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="3">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="12">
+        <v>112</v>
+      </c>
+      <c r="E62" s="13">
+        <v>20</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="3">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="3">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="3">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G65" s="3">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="12">
+        <v>98</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="3">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="12">
+        <v>81</v>
+      </c>
+      <c r="E67" s="13">
+        <v>19</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67" s="3">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="12">
+        <v>55</v>
+      </c>
+      <c r="E68" s="13">
+        <v>10</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G68" s="3">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="12">
+        <v>22</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="3">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="12">
+        <v>18</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G70" s="3">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="12">
+        <v>26</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="3">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="12">
+        <v>10</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="3">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="12">
+        <v>14</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="3">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="12">
+        <v>103</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G74" s="3">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="12">
+        <v>14</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G75" s="3">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="12">
+        <v>39</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="3">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D77" s="12">
+        <v>54</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" s="3">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="3">
+        <v>43175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" s="12">
+        <v>24</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="3">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="12">
+        <v>95</v>
+      </c>
+      <c r="E80" s="13">
+        <v>20</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G80" s="3">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" s="12">
+        <v>37</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="3">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="12">
+        <v>26</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G82" s="3">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" s="3">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" s="12">
+        <v>27</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="3">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="12">
+        <v>14</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G85" s="3">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="12">
+        <v>27</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="3">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D87" s="12">
+        <v>14</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87" s="3">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" s="12">
+        <v>19</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" s="3">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G89" s="3">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90" s="12">
+        <v>19</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G90" s="3">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D91" s="12">
+        <v>14</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G91" s="3">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" s="12">
+        <v>91</v>
+      </c>
+      <c r="E92" s="13">
+        <v>20</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G92" s="3">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="11">
+        <v>13</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G93" s="3">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D94" s="11">
+        <v>16</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="3">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D95" s="11">
+        <v>12</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G95" s="3">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" s="3">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="3">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" s="12">
+        <v>50</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G98" s="3">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="12">
+        <v>112</v>
+      </c>
+      <c r="E99" s="14">
+        <v>20</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G99" s="3">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D100" s="12">
+        <v>98</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="3">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="12">
+        <v>95</v>
+      </c>
+      <c r="E101" s="14">
+        <v>20</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G102" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D103" s="12">
+        <v>20</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G103" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" s="12">
+        <v>27</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" s="3">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" s="12">
+        <v>26</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" s="3">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D107" s="12">
+        <v>103</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G107" s="3">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D108" s="12">
+        <v>108</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G108" s="3">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G109" s="3">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G110" s="3">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="3">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D112" s="12">
+        <v>96</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G112" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="12">
+        <v>37</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G114" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D115" s="2">
+        <v>27</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D116" s="12">
+        <v>22</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G116" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G117" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D118" s="12">
+        <v>108</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G118" s="3">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G119" s="3">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G120" s="3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D121" s="2">
+        <v>15</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G122" s="3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" s="2">
+        <v>19</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" s="3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D124" s="2">
+        <v>15</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="3">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G125" s="3">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D126" s="12">
+        <v>28</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G126" s="3">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D127" s="2">
+        <v>14</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G127" s="3">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D128" s="2">
+        <v>22</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G128" s="3">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G129" s="3">
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D130" s="12">
+        <v>103</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G130" s="3">
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G131" s="3">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G132" s="3">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G133" s="3">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" s="3">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D135" s="2">
+        <v>96</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G135" s="3">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D136" s="2">
+        <v>35</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G136" s="3">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" s="2">
+        <v>103</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G137" s="3">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G138" s="3">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="3">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D140" s="8">
+        <v>35</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G140" s="3">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D141" s="11">
+        <v>33</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G141" s="3">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D142" s="2">
+        <v>103</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G142" s="3">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D143" s="2">
+        <v>98</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G143" s="3">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43</v>
+      </c>
+      <c r="E144" s="15">
+        <v>11</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="G144" s="3">
+        <v>43228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D145" s="2">
+        <v>95</v>
+      </c>
+      <c r="E145" s="15">
+        <v>20</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G145" s="3">
+        <v>43228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G146" s="3">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D147" s="2">
+        <v>24</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G147" s="3">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D148" s="9">
+        <v>20</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G148" s="3">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="3">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D150" s="2">
+        <v>103</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G150" s="3">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D151" s="9">
+        <v>50</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G151" s="3">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D152" s="9">
+        <v>100</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="3">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D153" s="9">
+        <v>34</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G153" s="3">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G154" s="3">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D155" s="2">
+        <v>19</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G155" s="3">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D156" s="9">
+        <v>12</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G156" s="3">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D157" s="9">
+        <v>35</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G157" s="3">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D158" s="9">
+        <v>36</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G158" s="3">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D159" s="9">
+        <v>83</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G159" s="3">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D160" s="9">
+        <v>16</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G160" s="3">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G161" s="3">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D162" s="9">
+        <v>38</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G162" s="3">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G163" s="3">
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D164" s="9">
+        <v>96</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G164" s="3">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D165" s="11">
+        <v>16</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G165" s="3">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D166" s="11">
+        <v>17</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G166" s="3">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="D167" s="2">
+        <v>19</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G167" s="3">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="D168" s="2">
+        <v>20</v>
+      </c>
+      <c r="E168" s="15">
+        <v>20</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="G168" s="3">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D169" s="9">
+        <v>26</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G169" s="3">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D171" s="12">
+        <v>43</v>
+      </c>
+      <c r="E171" s="14">
+        <v>11</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="G171" s="3">
+        <v>43238</v>
       </c>
     </row>
   </sheetData>
